--- a/ANS-170-RC/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
+++ b/ANS-170-RC/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T10:11:20+00:00</t>
+    <t>2026-01-14T13:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-RC/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
+++ b/ANS-170-RC/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T13:25:32+00:00</t>
+    <t>2026-01-15T13:02:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-RC/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
+++ b/ANS-170-RC/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T14:10:51+00:00</t>
+    <t>2026-01-30T11:08:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-RC/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
+++ b/ANS-170-RC/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-30T11:08:28+00:00</t>
+    <t>2026-01-30T15:03:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-RC/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
+++ b/ANS-170-RC/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-30T15:03:31+00:00</t>
+    <t>2026-01-30T15:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -867,7 +867,7 @@
     <t>Bundle.entry:AuditEvent.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">AuditEvent {https://interop.esante.gouv.fr/ig/fhir/tde/StructureDefinition/TDEAuditEvent}
+    <t xml:space="preserve">AuditEvent {https://interop.esante.gouv.fr/ig/fhir/tde/StructureDefinition/tde-auditevent}
 </t>
   </si>
   <si>
@@ -1296,7 +1296,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.07421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ANS-170-RC/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
+++ b/ANS-170-RC/ig/StructureDefinition-TDEBundleResultatReponseRechercheTraces.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-30T15:44:16+00:00</t>
+    <t>2026-02-03T13:33:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
